--- a/Planilha de riscos.xlsx
+++ b/Planilha de riscos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PICHAU\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pi\PI-1o-semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52AA8831-BC0D-4033-ABE8-C3B211BC7276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDF412D-1DB6-41ED-AAD1-2A6B1DA4EB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E41AC25-8658-4F32-AECD-C1D043281797}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E41AC25-8658-4F32-AECD-C1D043281797}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Riscos</t>
-  </si>
-  <si>
-    <t>Chance</t>
-  </si>
-  <si>
-    <t>Peso</t>
   </si>
   <si>
     <t>Como previnir</t>
@@ -65,12 +58,45 @@
   <si>
     <t>Falta de infraestutura</t>
   </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Alto         (3)</t>
+  </si>
+  <si>
+    <t>Moderado    (2)</t>
+  </si>
+  <si>
+    <t>Baixo     (1)</t>
+  </si>
+  <si>
+    <t>Baixo    (1)</t>
+  </si>
+  <si>
+    <t>Alto       (3)</t>
+  </si>
+  <si>
+    <t>Probabilidade</t>
+  </si>
+  <si>
+    <t>Possibilidade</t>
+  </si>
+  <si>
+    <t>Mitigar / Evitar</t>
+  </si>
+  <si>
+    <t>Mitigar</t>
+  </si>
+  <si>
+    <t>Conversar e sentar a porrada</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +104,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -111,13 +170,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -127,13 +244,102 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -148,7 +354,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -157,13 +363,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -172,11 +376,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -185,9 +406,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -196,11 +436,41 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -209,30 +479,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -250,6 +589,2177 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Perda de um integrante</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$G$6:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Impacto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Possibilidade</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigar / Evitar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Como previnir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$G$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A17-443A-AD04-52280E01D096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quebra do sensor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$G$6:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Impacto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Possibilidade</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigar / Evitar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Como previnir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$G$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A17-443A-AD04-52280E01D096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erro no arduino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$G$6:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Impacto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Possibilidade</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigar / Evitar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Como previnir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$G$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A17-443A-AD04-52280E01D096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Falta de comprometimento e comunicação</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$G$6:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Impacto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Possibilidade</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigar / Evitar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Como previnir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$G$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1A17-443A-AD04-52280E01D096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Falta de infraestutura</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$G$6:$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Impacto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Possibilidade</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mitigar / Evitar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Como previnir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$G$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1A17-443A-AD04-52280E01D096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="87748208"/>
+        <c:axId val="87749192"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$12:$K$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$13:$K$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$14:$K$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$15:$K$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$16:$K$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$17:$K$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$18:$K$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$19:$K$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$20:$K$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$21:$K$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$22:$K$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$F$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Impacto</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Possibilidade</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mitigar / Evitar</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Como previnir</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$G$23:$K$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-1A17-443A-AD04-52280E01D096}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="87748208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87749192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87749192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87748208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BC9DD6-F6A7-4F98-BB2E-F2B54563DF12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,57 +3059,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B041A7-7910-456A-AB45-5950FAE029F7}">
-  <dimension ref="F5:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="39.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="6:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
       <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
         <v>2</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
+      <c r="F7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23">
+        <v>2</v>
+      </c>
+      <c r="I7" s="24">
+        <v>2</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F7" s="5" t="s">
+    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="12"/>
+      <c r="F8" s="26" t="s">
         <v>4</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F8" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="G8" s="4">
         <v>2</v>
@@ -607,14 +3185,25 @@
       <c r="H8" s="4">
         <v>3</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>6</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="27"/>
     </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F9" s="4" t="s">
-        <v>7</v>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
@@ -622,14 +3211,19 @@
       <c r="H9" s="4">
         <v>3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>6</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="27"/>
     </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F10" s="4" t="s">
-        <v>8</v>
+    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="F10" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
@@ -637,14 +3231,21 @@
       <c r="H10" s="4">
         <v>3</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>6</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F11" s="4" t="s">
-        <v>9</v>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="F11" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="G11" s="4">
         <v>1</v>
@@ -652,82 +3253,112 @@
       <c r="H11" s="4">
         <v>3</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>3</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="4"/>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="26"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="27"/>
     </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F13" s="4"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="26"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="27"/>
     </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="4"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="26"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F15" s="4"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="26"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="4"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="26"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="27"/>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F17" s="4"/>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="26"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="27"/>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F18" s="4"/>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="26"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="27"/>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F19" s="4"/>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="26"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F20" s="4"/>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="26"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="27"/>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="4"/>
+    <row r="21" spans="6:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>